--- a/DEV/org.openl.rules/test/rules/calc1/AliasInSpreadsheet.xlsx
+++ b/DEV/org.openl.rules/test/rules/calc1/AliasInSpreadsheet.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="12525" windowWidth="27795" xWindow="480" yWindow="180"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="Alias" r:id="rId1" sheetId="21"/>
+    <sheet name="Alias" sheetId="21" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Step</t>
   </si>
@@ -22,154 +22,7 @@
     <t>v</t>
   </si>
   <si>
-    <t>_res_.$v$EQ</t>
-  </si>
-  <si>
-    <t>_res_.$v$NE</t>
-  </si>
-  <si>
-    <t>_res_.$v$GT</t>
-  </si>
-  <si>
-    <t>_res_.$v$LT</t>
-  </si>
-  <si>
-    <t>_res_.$v$GE</t>
-  </si>
-  <si>
-    <t>_res_.$v$LE</t>
-  </si>
-  <si>
-    <t>EQ</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>GE</t>
-  </si>
-  <si>
-    <t>LE</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>!=</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>&gt;=</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Datatype doubleAlias &lt;double&gt;</t>
-  </si>
-  <si>
-    <t>Datatype floatAlias &lt;float&gt;</t>
-  </si>
-  <si>
-    <t>Datatype longAlias &lt;long&gt;</t>
-  </si>
-  <si>
     <t>Datatype intAlias &lt;int&gt;</t>
-  </si>
-  <si>
-    <t>= alias &lt;= val</t>
-  </si>
-  <si>
-    <t>= alias &gt;= val</t>
-  </si>
-  <si>
-    <t>= alias &lt; val</t>
-  </si>
-  <si>
-    <t>= alias &gt; val</t>
-  </si>
-  <si>
-    <t>= alias != val</t>
-  </si>
-  <si>
-    <t>Datatype shortAlias &lt;short&gt;</t>
-  </si>
-  <si>
-    <t>= alias == val</t>
-  </si>
-  <si>
-    <t>val</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>Datatype byteAlias &lt;byte&gt;</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult byteAliasComparison ( byteAlias alias, Integer val )</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult shortAliasComparison ( shortAlias alias, int val )</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult intAliasComparison ( intAlias alias, Short val )</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult longAliasComparison ( longAlias alias, short val )</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult floatAliasComparison ( floatAlias alias, Double val )</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult doubleAliasComparison ( doubleAlias alias, Double val )</t>
-  </si>
-  <si>
-    <t>Test doubleAliasComparison</t>
-  </si>
-  <si>
-    <t>Test floatAliasComparison</t>
-  </si>
-  <si>
-    <t>Test longAliasComparison</t>
-  </si>
-  <si>
-    <t>Test intAliasComparison</t>
-  </si>
-  <si>
-    <t>Test shortAliasComparison</t>
-  </si>
-  <si>
-    <t>Test byteAliasComparison</t>
-  </si>
-  <si>
-    <t>&lt;&gt;</t>
-  </si>
-  <si>
-    <t>_res_.$v$NE_ALT</t>
-  </si>
-  <si>
-    <t>= alias &lt;&gt; val</t>
-  </si>
-  <si>
-    <t>NE_ALT</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult test( )</t>
   </si>
   <si>
     <t>A : Byte</t>
@@ -194,7 +47,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -225,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,97 +94,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ACT_H" xfId="0"/>
-    <cellStyle builtinId="0" name="Normal" xfId="1"/>
+    <cellStyle name="ACT_H" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -349,10 +136,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -510,7 +297,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -519,13 +306,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -535,7 +322,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -544,7 +331,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -553,7 +340,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -563,12 +350,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -599,7 +386,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -618,7 +405,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -630,149 +417,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="7.85546875" collapsed="true"/>
-    <col min="3" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.140625" style="1" collapsed="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="14" width="9.140625" style="1" collapsed="1"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="17" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D17" s="2" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="3" t="n">
-        <f> 117</f>
-        <v>117.0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <f>117</f>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D16:E16"/>
+  <mergeCells count="4">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>